--- a/result/fio0806/SUMMARY.xlsx
+++ b/result/fio0806/SUMMARY.xlsx
@@ -705,11 +705,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="205284096"/>
-        <c:axId val="205285632"/>
+        <c:axId val="201311360"/>
+        <c:axId val="201312896"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="205284096"/>
+        <c:axId val="201311360"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -719,7 +719,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="205285632"/>
+        <c:crossAx val="201312896"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -727,7 +727,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="205285632"/>
+        <c:axId val="201312896"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -738,14 +738,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="205284096"/>
+        <c:crossAx val="201311360"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -1322,11 +1321,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="213218816"/>
-        <c:axId val="213220352"/>
+        <c:axId val="201346432"/>
+        <c:axId val="201360512"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="213218816"/>
+        <c:axId val="201346432"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1336,7 +1335,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="213220352"/>
+        <c:crossAx val="201360512"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1344,7 +1343,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="213220352"/>
+        <c:axId val="201360512"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1355,14 +1354,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="213218816"/>
+        <c:crossAx val="201346432"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -1939,11 +1937,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="212030592"/>
-        <c:axId val="212174336"/>
+        <c:axId val="201410048"/>
+        <c:axId val="201411584"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="212030592"/>
+        <c:axId val="201410048"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1953,7 +1951,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="212174336"/>
+        <c:crossAx val="201411584"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1961,7 +1959,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="212174336"/>
+        <c:axId val="201411584"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1972,14 +1970,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="212030592"/>
+        <c:crossAx val="201410048"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -2556,11 +2553,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="228372480"/>
-        <c:axId val="228374400"/>
+        <c:axId val="201452544"/>
+        <c:axId val="201458432"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="228372480"/>
+        <c:axId val="201452544"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2570,7 +2567,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="228374400"/>
+        <c:crossAx val="201458432"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2578,7 +2575,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="228374400"/>
+        <c:axId val="201458432"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2589,14 +2586,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="228372480"/>
+        <c:crossAx val="201452544"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -3173,11 +3169,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="199582848"/>
-        <c:axId val="199748992"/>
+        <c:axId val="201516160"/>
+        <c:axId val="201517696"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="199582848"/>
+        <c:axId val="201516160"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3187,7 +3183,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="199748992"/>
+        <c:crossAx val="201517696"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3195,7 +3191,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="199748992"/>
+        <c:axId val="201517696"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3206,14 +3202,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="199582848"/>
+        <c:crossAx val="201516160"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -3790,11 +3785,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="213122048"/>
-        <c:axId val="213287680"/>
+        <c:axId val="201997312"/>
+        <c:axId val="202007296"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="213122048"/>
+        <c:axId val="201997312"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3804,7 +3799,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="213287680"/>
+        <c:crossAx val="202007296"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3812,7 +3807,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="213287680"/>
+        <c:axId val="202007296"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3823,14 +3818,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="213122048"/>
+        <c:crossAx val="201997312"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -4407,11 +4401,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="212776832"/>
-        <c:axId val="212829312"/>
+        <c:axId val="202036352"/>
+        <c:axId val="202037888"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="212776832"/>
+        <c:axId val="202036352"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4421,7 +4415,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="212829312"/>
+        <c:crossAx val="202037888"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4429,7 +4423,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="212829312"/>
+        <c:axId val="202037888"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4440,7 +4434,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="212776832"/>
+        <c:crossAx val="202036352"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5024,11 +5018,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="285967488"/>
-        <c:axId val="285969024"/>
+        <c:axId val="202353664"/>
+        <c:axId val="202359552"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="285967488"/>
+        <c:axId val="202353664"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5038,7 +5032,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="285969024"/>
+        <c:crossAx val="202359552"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5046,7 +5040,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="285969024"/>
+        <c:axId val="202359552"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5057,7 +5051,1241 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="285967488"/>
+        <c:crossAx val="202353664"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart17.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="ko-KR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$B$71</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$A$72:$A$78</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>128</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$72:$B$78</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>12571.428571428571</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>11228.571428571429</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7973.4285714285716</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5838.2857142857147</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3184.7142857142858</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1605.5714285714287</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>810</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$C$71</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>5</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$A$72:$A$78</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>128</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$C$72:$C$78</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>6658.8571428571431</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3160.2857142857142</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2212.7142857142858</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1570.2857142857142</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1059.4285714285713</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>701.28571428571433</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>495</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$D$71</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>25</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$A$72:$A$78</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>128</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$D$72:$D$78</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>9005.1428571428569</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6034.4285714285716</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4511.2857142857147</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2794.2857142857142</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1445.8571428571429</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>719.42857142857144</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>387.14285714285717</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$E$71</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>50</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$A$72:$A$78</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>128</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$E$72:$E$78</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>7909.4285714285716</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5571.8571428571431</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4631</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3937.8571428571427</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1778.2857142857142</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>973.85714285714289</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>593.42857142857144</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$F$71</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>75</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$A$72:$A$78</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>128</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$F$72:$F$78</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>15055.857142857143</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8909.7142857142862</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6437.7142857142853</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4323.1428571428569</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2755.1428571428573</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1501.7142857142858</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>770</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$G$71</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>95</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$A$72:$A$78</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>128</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$G$72:$G$78</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>12783.857142857143</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10345.857142857143</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6517.4285714285716</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3597.4285714285716</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2114.5714285714284</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1060.7142857142858</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>539.14285714285711</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="6"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$H$71</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>100</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$A$72:$A$78</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>128</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$H$72:$H$78</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>7960.7142857142853</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7218.2857142857147</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6700.4285714285716</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4962.7142857142853</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1689.1428571428571</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>874.85714285714289</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>476.71428571428572</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="221307264"/>
+        <c:axId val="221309184"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="221307264"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="221309184"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="221309184"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="221307264"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart18.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="ko-KR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$M$71</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$L$72:$L$78</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>128</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$M$72:$M$78</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>18.142857142857142</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>85.714285714285708</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>319.42857142857144</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>319.57142857142856</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>312.71428571428572</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>304.85714285714283</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>287.14285714285717</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$N$71</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>5</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$L$72:$L$78</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>128</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$N$72:$N$78</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>87.857142857142861</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>342</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>339</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>333</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>319.85714285714283</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>298.42857142857144</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>262</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$O$71</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>25</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$L$72:$L$78</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>128</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$O$72:$O$78</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>105.14285714285714</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>339</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>335.57142857142856</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>329.42857142857144</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>312.28571428571428</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>294.28571428571428</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>263</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$P$71</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>50</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$L$72:$L$78</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>128</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$P$72:$P$78</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>129.85714285714286</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>313</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>309.28571428571428</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>304.71428571428572</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>294.85714285714283</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>277.57142857142856</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>248.42857142857142</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$Q$71</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>75</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$L$72:$L$78</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>128</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$Q$72:$Q$78</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>173.42857142857142</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>284</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>281.57142857142856</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>277.71428571428572</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>270</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>255.85714285714286</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>232</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$R$71</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>95</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$L$72:$L$78</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>128</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$R$72:$R$78</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>238</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>266</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>264</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>260.28571428571428</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>254.42857142857142</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>242.57142857142858</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>221.85714285714286</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="6"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$S$71</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>100</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$L$72:$L$78</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>128</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$S$72:$S$78</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>267.42857142857144</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>265.71428571428572</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>263.71428571428572</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>260.57142857142856</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>254</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>242.42857142857142</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>222.14285714285714</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="137678208"/>
+        <c:axId val="137680000"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="137678208"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="137680000"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="137680000"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="137678208"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5641,11 +6869,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="285604864"/>
-        <c:axId val="285639424"/>
+        <c:axId val="200702976"/>
+        <c:axId val="200717056"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="285604864"/>
+        <c:axId val="200702976"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5655,7 +6883,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="285639424"/>
+        <c:crossAx val="200717056"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5663,7 +6891,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="285639424"/>
+        <c:axId val="200717056"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5674,14 +6902,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="285604864"/>
+        <c:crossAx val="200702976"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -6258,11 +7485,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="199858048"/>
-        <c:axId val="199859584"/>
+        <c:axId val="201602176"/>
+        <c:axId val="201603712"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="199858048"/>
+        <c:axId val="201602176"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6272,7 +7499,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="199859584"/>
+        <c:crossAx val="201603712"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6280,7 +7507,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="199859584"/>
+        <c:axId val="201603712"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6291,14 +7518,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="199858048"/>
+        <c:crossAx val="201602176"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -6875,11 +8101,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="197104384"/>
-        <c:axId val="199559040"/>
+        <c:axId val="201649152"/>
+        <c:axId val="201200384"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="197104384"/>
+        <c:axId val="201649152"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6889,7 +8115,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="199559040"/>
+        <c:crossAx val="201200384"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6897,7 +8123,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="199559040"/>
+        <c:axId val="201200384"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6908,14 +8134,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="197104384"/>
+        <c:crossAx val="201649152"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -7492,11 +8717,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="210528896"/>
-        <c:axId val="212091264"/>
+        <c:axId val="201235456"/>
+        <c:axId val="201245440"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="210528896"/>
+        <c:axId val="201235456"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7506,7 +8731,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="212091264"/>
+        <c:crossAx val="201245440"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -7514,7 +8739,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="212091264"/>
+        <c:axId val="201245440"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7525,14 +8750,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="210528896"/>
+        <c:crossAx val="201235456"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -8109,11 +9333,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="197278336"/>
-        <c:axId val="197300608"/>
+        <c:axId val="201692288"/>
+        <c:axId val="201693824"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="197278336"/>
+        <c:axId val="201692288"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8123,7 +9347,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="197300608"/>
+        <c:crossAx val="201693824"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -8131,7 +9355,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="197300608"/>
+        <c:axId val="201693824"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8142,7 +9366,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="197278336"/>
+        <c:crossAx val="201692288"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -8726,11 +9950,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="214231680"/>
-        <c:axId val="214794624"/>
+        <c:axId val="201710592"/>
+        <c:axId val="201802496"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="214231680"/>
+        <c:axId val="201710592"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8740,7 +9964,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="214794624"/>
+        <c:crossAx val="201802496"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -8748,7 +9972,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="214794624"/>
+        <c:axId val="201802496"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8759,7 +9983,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="214231680"/>
+        <c:crossAx val="201710592"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -9343,11 +10567,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="197194880"/>
-        <c:axId val="197200512"/>
+        <c:axId val="201844224"/>
+        <c:axId val="201845760"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="197194880"/>
+        <c:axId val="201844224"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9357,7 +10581,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="197200512"/>
+        <c:crossAx val="201845760"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -9365,7 +10589,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="197200512"/>
+        <c:axId val="201845760"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9376,14 +10600,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="197194880"/>
+        <c:crossAx val="201844224"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -9960,11 +11183,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="212419328"/>
-        <c:axId val="212420864"/>
+        <c:axId val="201893376"/>
+        <c:axId val="201894912"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="212419328"/>
+        <c:axId val="201893376"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9974,7 +11197,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="212420864"/>
+        <c:crossAx val="201894912"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -9982,7 +11205,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="212420864"/>
+        <c:axId val="201894912"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9993,14 +11216,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="212419328"/>
+        <c:crossAx val="201893376"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -10497,6 +11719,66 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>581025</xdr:colOff>
+      <xdr:row>91</xdr:row>
+      <xdr:rowOff>195262</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>352425</xdr:colOff>
+      <xdr:row>105</xdr:row>
+      <xdr:rowOff>4762</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="차트 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId17"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>400050</xdr:colOff>
+      <xdr:row>91</xdr:row>
+      <xdr:rowOff>128587</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>104</xdr:row>
+      <xdr:rowOff>147637</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="17" name="차트 16"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId18"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -10789,8 +12071,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U78"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A59" workbookViewId="0">
-      <selection activeCell="U82" sqref="U82"/>
+    <sheetView tabSelected="1" topLeftCell="A83" workbookViewId="0">
+      <selection activeCell="L71" sqref="L71:S78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
